--- a/assets/Reproducibility_Results.xlsx
+++ b/assets/Reproducibility_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prasanna_Redy\Desktop\ICASSP_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D49F7E5-CD85-440D-9E8F-4FA3D6B7D211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7FAB17-BEE2-44FB-8B4A-7EF83CCE9CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1248" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Seed</t>
   </si>
@@ -99,14 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,20 +394,19 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="13.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="13.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -420,9 +416,12 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -448,7 +447,6 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>22222</v>
       </c>
@@ -458,7 +456,6 @@
       <c r="D3" s="3">
         <v>6.3</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="1">
         <v>11.51</v>
       </c>
@@ -467,7 +464,6 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>33333</v>
       </c>
@@ -477,7 +473,6 @@
       <c r="D4" s="3">
         <v>5.64</v>
       </c>
-      <c r="E4" s="3"/>
       <c r="F4" s="1">
         <v>12.05</v>
       </c>
@@ -486,7 +481,6 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>44444</v>
       </c>
@@ -496,7 +490,6 @@
       <c r="D5" s="3">
         <v>5.89</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="1">
         <v>12.14</v>
       </c>
@@ -505,7 +498,6 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>55555</v>
       </c>
@@ -515,7 +507,6 @@
       <c r="D6" s="3">
         <v>7.17</v>
       </c>
-      <c r="E6" s="3"/>
       <c r="F6" s="1">
         <v>11.71</v>
       </c>
@@ -524,17 +515,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>12345</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>9.6199999999999992</v>
       </c>
       <c r="D7" s="2">
         <v>5.83</v>
       </c>
-      <c r="E7" s="3"/>
       <c r="F7" s="1">
         <v>11.6</v>
       </c>
@@ -543,43 +532,43 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>AVERAGE(C2:C7)</f>
         <v>9.6716666666666651</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>AVERAGE(D2:D7)</f>
         <v>6.1149999999999993</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>AVERAGE(F2:F7)</f>
         <v>11.726666666666667</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f>AVERAGE(G2:G7)</f>
         <v>13.543333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>_xlfn.STDEV.P(C2:C7)</f>
         <v>7.1278015934477162E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>_xlfn.STDEV.P(D2:D7)</f>
         <v>0.5114929129518806</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>_xlfn.STDEV.P(F2:F7)</f>
         <v>0.28299980369054872</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f>_xlfn.STDEV.P(G2:G7)</f>
         <v>1.1210956942007921</v>
       </c>
